--- a/5_Testing_Datasets/Byron Bay_2481_28.09.2021_Post_Participants.xlsx
+++ b/5_Testing_Datasets/Byron Bay_2481_28.09.2021_Post_Participants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Dummy Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\shiny-seaside\5_Testing_Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586E53A-3639-4B11-BEAB-B0988B4FF59E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863A836-DE96-406A-9B0D-D74EAF1621C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5_Testing_Datasets/Byron Bay_2481_28.09.2021_Post_Participants.xlsx
+++ b/5_Testing_Datasets/Byron Bay_2481_28.09.2021_Post_Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\shiny-seaside\5_Testing_Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863A836-DE96-406A-9B0D-D74EAF1621C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41728284-664B-4D47-BBDA-283DE3E3BDE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,6 @@
     <t>n</t>
   </si>
   <si>
-    <t xml:space="preserve">On a scale of 1-5, how would you rate your environmental habits after the activity? </t>
-  </si>
-  <si>
     <t>Select the appropriate response you feel represents your experience [new option] (Action)</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Connected with people and colleagues, Enjoyed meeting new people</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 5, where 1 is not engaged at all and 5 is very engaged, how engaged are you in making changes that positively impact the environment?</t>
   </si>
 </sst>
 </file>
@@ -590,9 +590,9 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -615,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -639,10 +639,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -665,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -715,7 +715,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -811,10 +811,10 @@
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -907,7 +907,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1007,7 +1007,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1057,7 +1057,7 @@
         <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1107,7 +1107,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1155,7 +1155,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1203,7 +1203,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1251,7 +1251,7 @@
         <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -1299,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1347,7 +1347,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1395,7 +1395,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -1443,7 +1443,7 @@
         <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -1491,7 +1491,7 @@
         <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>77</v>
@@ -1539,7 +1539,7 @@
         <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -1587,7 +1587,7 @@
         <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1654,5 +1654,6 @@
     <hyperlink ref="B21" r:id="rId16" xr:uid="{0137ED72-29D3-4B20-B88C-0B4CB9EF0D2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>